--- a/Info_TestId.xlsx
+++ b/Info_TestId.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mr_Li/Documents/OneDrive/响应测试_数据可视化及分析/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947D433D-05AF-EB4D-8354-3DE6E9E96E17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24634361-2DF7-C24B-9C32-D2A8134DE85B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16220" activeTab="1" xr2:uid="{29AD0CC3-DF6C-3E4B-AD9A-2B92D54444AD}"/>
+    <workbookView xWindow="3820" yWindow="2320" windowWidth="21160" windowHeight="13280" activeTab="3" xr2:uid="{29AD0CC3-DF6C-3E4B-AD9A-2B92D54444AD}"/>
   </bookViews>
   <sheets>
     <sheet name="0522" sheetId="1" r:id="rId1"/>
-    <sheet name="0525" sheetId="2" r:id="rId2"/>
+    <sheet name="0524" sheetId="2" r:id="rId2"/>
+    <sheet name="0525" sheetId="3" r:id="rId3"/>
+    <sheet name="0527" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="143">
   <si>
     <t>start</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -334,13 +336,247 @@
   </si>
   <si>
     <t>K2_8</t>
+  </si>
+  <si>
+    <t>2021-05-25 15:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-25 15:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CR_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-25 15:37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-25 15:47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-25 15:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-25 15:59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-25 16:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-25 16:19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-25 16:21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-25 16:27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-25 16:33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-25 16:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-25 16:37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-25 16:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-25 16:49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-25 16:55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CR_2</t>
+  </si>
+  <si>
+    <t>CR_3</t>
+  </si>
+  <si>
+    <t>CR_4</t>
+  </si>
+  <si>
+    <t>CR_5</t>
+  </si>
+  <si>
+    <t>CR_6</t>
+  </si>
+  <si>
+    <t>CR_7</t>
+  </si>
+  <si>
+    <t>CR_8</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>testId</t>
+  </si>
+  <si>
+    <t>Kp</t>
+  </si>
+  <si>
+    <t>Ti</t>
+  </si>
+  <si>
+    <t>2021-05-27 10:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-27 10:57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-27 11:05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-27 11:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-27 11:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-27 13:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-27 13:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-27 17:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-27 17:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-27 19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-27 19:05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-27 19:08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-27 19:14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-27 19:42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-27 19:49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-27 19:34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-27 19:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-27 17:55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-27 18:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Klow_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Klow_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Klow_3</t>
+  </si>
+  <si>
+    <t>Klow_4</t>
+  </si>
+  <si>
+    <t>Kmid_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kmid_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K2_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Casc_Low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-27 11:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-27 11:01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-27 11:09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-27 19:18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-27 19:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -353,6 +589,14 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -379,11 +623,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -703,10 +950,10 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -1061,11 +1308,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F4023E-6004-1241-B37C-91B58A844102}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1244,4 +1491,411 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300105F5-99FB-4DC0-88DF-5652DD964C7B}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2">
+        <v>2.0880000000000001</v>
+      </c>
+      <c r="E2">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3">
+        <v>2.0880000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>0.25</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6">
+        <v>0.625</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7">
+        <v>0.875</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9">
+        <v>0.9</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793DE1F7-EB4B-CA47-B6DE-233A099482AD}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.79300000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.0880000000000001</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.79300000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2.0880000000000001</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.79300000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.79300000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.79300000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.79300000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.79300000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.79300000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.79300000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.79300000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2.0880000000000001</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.79300000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.79300000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Info_TestId.xlsx
+++ b/Info_TestId.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mr_Li/Documents/OneDrive/响应测试_数据可视化及分析/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mr_Li/Documents/OneDrive/CommandAndControl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24634361-2DF7-C24B-9C32-D2A8134DE85B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D17C35D-1F1D-6649-983B-D92957B4CC1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3820" yWindow="2320" windowWidth="21160" windowHeight="13280" activeTab="3" xr2:uid="{29AD0CC3-DF6C-3E4B-AD9A-2B92D54444AD}"/>
   </bookViews>
@@ -16,9 +16,11 @@
     <sheet name="0522" sheetId="1" r:id="rId1"/>
     <sheet name="0524" sheetId="2" r:id="rId2"/>
     <sheet name="0525" sheetId="3" r:id="rId3"/>
-    <sheet name="0527" sheetId="4" r:id="rId4"/>
+    <sheet name="0526" sheetId="6" r:id="rId4"/>
+    <sheet name="0527" sheetId="4" r:id="rId5"/>
+    <sheet name="0528" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="149">
   <si>
     <t>start</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -569,6 +571,30 @@
   </si>
   <si>
     <t>2021-05-27 19:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-28 11:58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Casc_Low_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-28 12:34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-28 15:19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-28 16:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Casc_Low_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1664,11 +1690,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCC2D42-BED2-3D46-8A92-CEE27C95FC50}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793DE1F7-EB4B-CA47-B6DE-233A099482AD}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="A13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1898,4 +1939,71 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895086F8-3F81-054C-B4DB-8C32CDBB6BD2}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.79300000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.79300000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Info_TestId.xlsx
+++ b/Info_TestId.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mr_Li/Documents/OneDrive/CommandAndControl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D17C35D-1F1D-6649-983B-D92957B4CC1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BF4217-D7D0-9447-8FD8-D5A1E06CCF05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3820" yWindow="2320" windowWidth="21160" windowHeight="13280" activeTab="3" xr2:uid="{29AD0CC3-DF6C-3E4B-AD9A-2B92D54444AD}"/>
+    <workbookView xWindow="3820" yWindow="2320" windowWidth="21160" windowHeight="13280" activeTab="8" xr2:uid="{29AD0CC3-DF6C-3E4B-AD9A-2B92D54444AD}"/>
   </bookViews>
   <sheets>
     <sheet name="0522" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="0526" sheetId="6" r:id="rId4"/>
     <sheet name="0527" sheetId="4" r:id="rId5"/>
     <sheet name="0528" sheetId="5" r:id="rId6"/>
+    <sheet name="0529_ValveResponse" sheetId="7" r:id="rId7"/>
+    <sheet name="0601" sheetId="8" r:id="rId8"/>
+    <sheet name="0602" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="233">
   <si>
     <t>start</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -595,6 +598,324 @@
   </si>
   <si>
     <t>Casc_Low_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-29 16:36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-29 16:53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-29 16:54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-29 17:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Valve-Flowrate_CC_Tuning_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Valve-Flowrate_CC_Tuning_2</t>
+  </si>
+  <si>
+    <t>2021-06-01 10:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-01 10:36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Valve-To_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-01 10:38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-01 10:44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Valve-To_2</t>
+  </si>
+  <si>
+    <t>2021-06-01 10:56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-01 11:02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-01 14:16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Valve-To_3</t>
+  </si>
+  <si>
+    <t>Valve-To_4</t>
+  </si>
+  <si>
+    <t>Valve-To_5</t>
+  </si>
+  <si>
+    <t>2021-06-01 14:28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-01 11:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-01 11:42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Casc_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-01 11:47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-01 11:57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.898/0.793</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-01 12:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-01 13:18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-01 16:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-01 16:54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Casc_2</t>
+  </si>
+  <si>
+    <t>Casc_3</t>
+  </si>
+  <si>
+    <t>Casc_4</t>
+  </si>
+  <si>
+    <t>V2F_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-01 18:51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-01 19:06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.358/0.268</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0327/0.536</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-01 19:13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-01 19:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2F_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-02 11:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-02 11:22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2F_2</t>
+  </si>
+  <si>
+    <t>V2F_3</t>
+  </si>
+  <si>
+    <t>V2F_4</t>
+  </si>
+  <si>
+    <t>V2F_5</t>
+  </si>
+  <si>
+    <t>V2F_6</t>
+  </si>
+  <si>
+    <t>V2F_7</t>
+  </si>
+  <si>
+    <t>V2F_8</t>
+  </si>
+  <si>
+    <t>V2F_9</t>
+  </si>
+  <si>
+    <t>2021-06-02 11:29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-02 11:46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.393/1.078</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-02 11:53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-02 12:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-02 14:48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-02 15:02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.03/0.536</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.04/0.536</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-02 15:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-02 15:23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0349/0.199</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.08/0.199</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.08/0.536</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-02 15:33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-02 15:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-02 15:37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-02 15:58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-02 16:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-02 16:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-02 16:29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2O_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-02 16:36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-02 16:47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2O_2</t>
+  </si>
+  <si>
+    <t>V2O_3</t>
+  </si>
+  <si>
+    <t>2021-06-02 16:51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-02 16:57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-02 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-02 17:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-02 15:26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,7 +970,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -657,6 +978,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1693,7 +2017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCC2D42-BED2-3D46-8A92-CEE27C95FC50}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -1946,7 +2270,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2006,4 +2330,532 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57EEC428-183A-E844-89D0-E87B922FAD52}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="2">
+        <v>24.358000000000001</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.79300000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="2">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.79300000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3C7BEC-10D5-0C47-B77B-C8D5DAB93C15}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.79300000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.79300000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.79300000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.79300000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.79300000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7359EC08-AE89-0847-B13B-84B86EF22155}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.73199999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.716</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.73199999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Info_TestId.xlsx
+++ b/Info_TestId.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mr_Li/Documents/OneDrive/CommandAndControl/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Storage/OneDrive/CommandAndControl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BF4217-D7D0-9447-8FD8-D5A1E06CCF05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE54CEB8-AADF-C34F-926D-FCDB220EA08D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3820" yWindow="2320" windowWidth="21160" windowHeight="13280" activeTab="8" xr2:uid="{29AD0CC3-DF6C-3E4B-AD9A-2B92D54444AD}"/>
+    <workbookView xWindow="3820" yWindow="2320" windowWidth="21160" windowHeight="13280" activeTab="5" xr2:uid="{29AD0CC3-DF6C-3E4B-AD9A-2B92D54444AD}"/>
   </bookViews>
   <sheets>
     <sheet name="0522" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="245">
   <si>
     <t>start</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -917,6 +917,52 @@
   <si>
     <t>2021-06-02 15:26</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-28 11:06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-28 11:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-28 11:16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-28 11:28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-28 11:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-28 11:39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-27 11:43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-27 11:49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Klow_1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K_low_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K_low_2</t>
+  </si>
+  <si>
+    <t>K_low_3</t>
   </si>
 </sst>
 </file>
@@ -2030,13 +2076,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793DE1F7-EB4B-CA47-B6DE-233A099482AD}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="A13:E13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="2" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
@@ -2256,6 +2305,23 @@
         <v>0.89900000000000002</v>
       </c>
       <c r="E13" s="2">
+        <v>0.79300000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="E14" s="2">
         <v>0.79300000000000004</v>
       </c>
     </row>
@@ -2267,13 +2333,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895086F8-3F81-054C-B4DB-8C32CDBB6BD2}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="A1:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="2" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
@@ -2326,9 +2395,61 @@
         <v>0.79300000000000004</v>
       </c>
     </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.79300000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.79300000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.79300000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2623,7 +2744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7359EC08-AE89-0847-B13B-84B86EF22155}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
